--- a/saved_data_bogstav/Bogstav-sammenligning.xlsx
+++ b/saved_data_bogstav/Bogstav-sammenligning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinNammat\Documents\Programming-2\all_tests\rust_network_sigmoid\saved_data_bogstav\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF705DE-AD13-4206-8C72-1AC6C57796B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C24A5A-7BBB-4992-BEA4-AAEBB51F5D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lag 1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
     <definedName name="_xlchart.v1.1" hidden="1">'Sammengling maks'!$D$5:$O$5</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sammenlign tid'!$D$4:$O$4</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Sammenlign tid'!$D$5:$O$5</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sammenlign tid'!$D$4:$O$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sammenlign tid'!$D$5:$O$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26471,7 +26469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -30012,8 +30010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9FA462-D3F6-49A9-BA08-1F0175B652BC}">
   <dimension ref="A4:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31780,7 +31778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD788A63-E931-4803-80D1-98B8512AEE04}">
   <dimension ref="D3:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
